--- a/loaded_influencer_data/amayacrichton/amayacrichton_video.xlsx
+++ b/loaded_influencer_data/amayacrichton/amayacrichton_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,13 +518,13 @@
         <v>1100000</v>
       </c>
       <c r="D2" t="n">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.499612068965517</v>
+        <v>9.499629310344828</v>
       </c>
       <c r="I2" t="n">
         <v>9.482758620689655</v>
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01685344827586207</v>
+        <v>0.01687068965517241</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3577586206896552</v>
+        <v>0.3586206896551724</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5500000</v>
+        <v>5600000</v>
       </c>
       <c r="C3" t="n">
-        <v>778300</v>
+        <v>779500</v>
       </c>
       <c r="D3" t="n">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>137300</v>
+        <v>137600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.18269090909091</v>
+        <v>13.95082142857143</v>
       </c>
       <c r="I3" t="n">
-        <v>14.15090909090909</v>
+        <v>13.91964285714286</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03178181818181818</v>
+        <v>0.03117857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>2.496363636363637</v>
+        <v>2.457142857142857</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -619,16 +619,16 @@
         <v>3300000</v>
       </c>
       <c r="C4" t="n">
-        <v>737900</v>
+        <v>739700</v>
       </c>
       <c r="D4" t="n">
-        <v>1955</v>
+        <v>1961</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73400</v>
+        <v>73700</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>22.41984848484848</v>
+        <v>22.47457575757576</v>
       </c>
       <c r="I4" t="n">
-        <v>22.36060606060606</v>
+        <v>22.41515151515151</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05924242424242424</v>
+        <v>0.05942424242424242</v>
       </c>
       <c r="L4" t="n">
-        <v>2.224242424242425</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,298 +664,599 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amayacrichton/video/7486673173799374126</t>
+          <t>https://www.tiktok.com/@amayacrichton/video/7489637965141118254</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448600</v>
+        <v>8876</v>
       </c>
       <c r="C5" t="n">
-        <v>74000</v>
+        <v>1175</v>
       </c>
       <c r="D5" t="n">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2962</v>
+        <v>96</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Because why do I look sick and unwell like …</t>
+          <t>My go-to pre-vacation ritual from now on using @sttropeztan express mousse + sunlit skin for the perfect full-body glow! Grab them while they're on sale during the</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.53744984395898</v>
+        <v>13.3618747183416</v>
       </c>
       <c r="I5" t="n">
-        <v>16.49576460098083</v>
+        <v>13.2379450202794</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04168524297815426</v>
+        <v>0.1239296980621902</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6602764155149353</v>
+        <v>1.081568273997296</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amayacrichton/video/7486608557400509738</t>
+          <t>https://www.tiktok.com/@amayacrichton/video/7489509748585368874</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9043</v>
+        <v>16600</v>
       </c>
       <c r="C6" t="n">
-        <v>517</v>
+        <v>2038</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Found my go-to scent for Spring thanks to @Glossier You Fleur #glossierpartner @sephora #sephora</t>
+          <t>This sound is what doing skin care feels like🫧</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.805595488222935</v>
+        <v>12.48795180722892</v>
       </c>
       <c r="I6" t="n">
-        <v>5.717129271259537</v>
+        <v>12.27710843373494</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08846621696339711</v>
+        <v>0.2108433734939759</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3428065907331638</v>
+        <v>0.716867469879518</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amayacrichton/video/7486526361377688878</t>
+          <t>https://www.tiktok.com/@amayacrichton/video/7489330456853368110</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20100</v>
+        <v>8627</v>
       </c>
       <c r="C7" t="n">
-        <v>2125</v>
+        <v>787</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Haven’t felt like talking lately, but enjoy this xoxo</t>
+          <t>Forever an @Hourglass Cosmetics girl because this base routine is top tier #hourglasspartner
+Veil Skin Tint – 12</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.71144278606965</v>
+        <v>9.261620493798539</v>
       </c>
       <c r="I7" t="n">
-        <v>10.57213930348259</v>
+        <v>9.122522313666396</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1393034825870647</v>
+        <v>0.1390981801321433</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.7186739306827402</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amayacrichton/photo/7486212167436340523</t>
+          <t>https://www.tiktok.com/@amayacrichton/video/7488894707053972779</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12000</v>
+        <v>19100</v>
       </c>
       <c r="C8" t="n">
-        <v>1511</v>
+        <v>2604</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Life lately</t>
+          <t>Natural lighting always eats</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12.85</v>
+        <v>13.70157068062827</v>
       </c>
       <c r="I8" t="n">
-        <v>12.59166666666667</v>
+        <v>13.63350785340314</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.3664921465968586</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amayacrichton/video/7483894550696824110</t>
+          <t>https://www.tiktok.com/@amayacrichton/video/7488684990197402926</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>361700</v>
+        <v>12100</v>
       </c>
       <c r="C9" t="n">
-        <v>2898</v>
+        <v>920</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>#NeutrogenaPartner Spring break ready with my @Neutrogena essentials that you can buy on Amazon</t>
+          <t>Got the ultimate hair glow up with a @Kérastase Premiere Collection #kerastasepartner #carewashday</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8037047276748687</v>
+        <v>7.644628099173553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8012164777439869</v>
+        <v>7.603305785123966</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002488249930881946</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="L9" t="n">
-        <v>0.116671274536909</v>
+        <v>0.4793388429752066</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@amayacrichton/video/7487818673604922667</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>189</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>#LancômePartner This LENGTH is giving lash extensions but it’s just @Lancôme lash idôle flutter mascara!</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.324786324786325</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.273504273504273</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amayacrichton/video/7486673173799374126</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>448600</v>
+      </c>
+      <c r="C11" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>187</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2962</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Because why do I look sick and unwell like …</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>16.53744984395898</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.49576460098083</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04168524297815426</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6602764155149353</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amayacrichton/video/7486608557400509738</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9043</v>
+      </c>
+      <c r="C12" t="n">
+        <v>517</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Found my go-to scent for Spring thanks to @Glossier You Fleur #glossierpartner @sephora #sephora</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5.805595488222935</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.717129271259537</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.08846621696339711</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3428065907331638</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amayacrichton/video/7486526361377688878</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>127</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Haven’t felt like talking lately, but enjoy this xoxo</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10.71144278606965</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.57213930348259</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1393034825870647</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6318407960199005</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amayacrichton/photo/7486212167436340523</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>91</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Life lately</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.59166666666667</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2583333333333333</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amayacrichton/video/7483894550696824110</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>361700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2898</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>422</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>#NeutrogenaPartner Spring break ready with my @Neutrogena essentials that you can buy on Amazon</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8037047276748687</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8012164777439869</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.002488249930881946</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.116671274536909</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@amayacrichton/video/7483362183615761694</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>57600</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>5123</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>52</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>254</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Can’t wait to be tan all summer long</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>8.984375</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>8.894097222222221</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.09027777777777778</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.4409722222222222</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
